--- a/scraper/top_remaining_spreadsheets_states/top_remaining_IA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_IA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>STATE</t>
   </si>
@@ -44,45 +44,48 @@
     <t>Tic Tac Toad</t>
   </si>
   <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>$50 Loaded!</t>
+  </si>
+  <si>
+    <t>Lucky 7s</t>
+  </si>
+  <si>
+    <t>Quick 7s</t>
+  </si>
+  <si>
+    <t>Match 2</t>
+  </si>
+  <si>
+    <t>Stinking Rich</t>
+  </si>
+  <si>
+    <t>Cashtastic</t>
+  </si>
+  <si>
+    <t>LUCKY EWE!</t>
+  </si>
+  <si>
+    <t>Cherry Doubler</t>
+  </si>
+  <si>
+    <t>Ultimate Bankroll</t>
+  </si>
+  <si>
+    <t>Lucky Gems</t>
+  </si>
+  <si>
+    <t>Loose Change Progressive</t>
+  </si>
+  <si>
+    <t>Hedgie Hundreds</t>
+  </si>
+  <si>
     <t>2019-03-07</t>
   </si>
   <si>
-    <t>$50 Loaded!</t>
-  </si>
-  <si>
-    <t>Lucky 7s</t>
-  </si>
-  <si>
-    <t>Quick 7s</t>
-  </si>
-  <si>
-    <t>Match 2</t>
-  </si>
-  <si>
-    <t>Hedgie Hundreds</t>
-  </si>
-  <si>
-    <t>Stinking Rich</t>
-  </si>
-  <si>
-    <t>Cashtastic</t>
-  </si>
-  <si>
-    <t>LUCKY EWE!</t>
-  </si>
-  <si>
-    <t>Cherry Doubler</t>
-  </si>
-  <si>
-    <t>Ultimate Bankroll</t>
-  </si>
-  <si>
-    <t>Lucky Gems</t>
-  </si>
-  <si>
-    <t>Loose Change Progressive</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
@@ -113,12 +116,12 @@
     <t>High Roller</t>
   </si>
   <si>
+    <t>Treasure Chest</t>
+  </si>
+  <si>
     <t>Pay My Way</t>
   </si>
   <si>
-    <t>Treasure Chest</t>
-  </si>
-  <si>
     <t>Silver 7s</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>Lucky X10</t>
   </si>
   <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
     <t>Block-O</t>
   </si>
   <si>
@@ -158,18 +164,18 @@
     <t>Honey Money</t>
   </si>
   <si>
+    <t>Connect For Cash</t>
+  </si>
+  <si>
     <t>Money Drop Multiplier</t>
   </si>
   <si>
-    <t>Connect For Cash</t>
+    <t>Bonus Crossword</t>
   </si>
   <si>
     <t>Winner Winner Chicken Dinner</t>
   </si>
   <si>
-    <t>Bonus Crossword</t>
-  </si>
-  <si>
     <t>CrissCross Cash</t>
   </si>
   <si>
@@ -197,24 +203,24 @@
     <t>Cash Lift</t>
   </si>
   <si>
+    <t>Pharaoh's Fortune</t>
+  </si>
+  <si>
+    <t>Jumbo Bucks Progressive</t>
+  </si>
+  <si>
+    <t>Struck By Luck</t>
+  </si>
+  <si>
+    <t>Extreme Cash Blast</t>
+  </si>
+  <si>
+    <t>Cash Spectacular</t>
+  </si>
+  <si>
     <t>Frogger Level II</t>
   </si>
   <si>
-    <t>Pharaoh's Fortune</t>
-  </si>
-  <si>
-    <t>Jumbo Bucks Progressive</t>
-  </si>
-  <si>
-    <t>Struck By Luck</t>
-  </si>
-  <si>
-    <t>Extreme Cash Blast</t>
-  </si>
-  <si>
-    <t>Cash Spectacular</t>
-  </si>
-  <si>
     <t>$500 Loaded!</t>
   </si>
   <si>
@@ -245,13 +251,13 @@
     <t>$1,000 Loaded!</t>
   </si>
   <si>
+    <t>Diamond 9s</t>
+  </si>
+  <si>
     <t>Jackpot Party Progressive</t>
   </si>
   <si>
     <t>Cash In</t>
-  </si>
-  <si>
-    <t>Diamond 9s</t>
   </si>
   <si>
     <t>Spectacular Riches</t>
@@ -659,7 +665,7 @@
         <v>393</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -756,10 +762,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E7">
-        <v>1030</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -776,10 +782,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -796,10 +802,10 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -816,10 +822,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -836,10 +842,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -856,10 +862,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>395</v>
+        <v>140</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -876,10 +882,10 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -896,13 +902,13 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>144</v>
+        <v>423</v>
       </c>
       <c r="E14">
-        <v>35</v>
+        <v>1030</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -910,10 +916,10 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>376</v>
@@ -930,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>394</v>
@@ -950,10 +956,10 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>385</v>
@@ -970,10 +976,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>399</v>
@@ -990,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>388</v>
@@ -1010,10 +1016,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20">
         <v>145</v>
@@ -1030,10 +1036,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>424</v>
@@ -1050,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>349</v>
@@ -1070,10 +1076,10 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>78</v>
@@ -1090,16 +1096,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1110,16 +1116,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="E25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1130,10 +1136,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>372</v>
@@ -1150,10 +1156,10 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>141</v>
@@ -1170,10 +1176,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>417</v>
@@ -1190,10 +1196,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>416</v>
@@ -1210,10 +1216,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>895</v>
@@ -1230,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>396</v>
@@ -1250,10 +1256,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32">
         <v>383</v>
@@ -1262,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1270,10 +1276,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>331</v>
@@ -1290,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34">
         <v>330</v>
@@ -1310,10 +1316,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D35">
         <v>367</v>
@@ -1330,10 +1336,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>389</v>
@@ -1350,10 +1356,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>422</v>
@@ -1370,16 +1376,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D38">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1390,16 +1396,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1410,16 +1416,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>350</v>
+        <v>953</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1430,16 +1436,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D41">
-        <v>953</v>
+        <v>350</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1450,10 +1456,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>305</v>
@@ -1470,10 +1476,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>884</v>
@@ -1490,10 +1496,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>362</v>
@@ -1510,10 +1516,10 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>954</v>
@@ -1530,10 +1536,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>885</v>
@@ -1550,10 +1556,10 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>347</v>
@@ -1570,10 +1576,10 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>950</v>
@@ -1590,10 +1596,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D49">
         <v>332</v>
@@ -1610,16 +1616,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D50">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="E50">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1630,16 +1636,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>425</v>
+        <v>378</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1650,16 +1656,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D52">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1670,16 +1676,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D53">
-        <v>143</v>
+        <v>401</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1690,16 +1696,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D54">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1710,16 +1716,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D55">
-        <v>397</v>
+        <v>142</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1730,19 +1736,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D56">
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1750,10 +1756,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D57">
         <v>418</v>
@@ -1770,10 +1776,10 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D58">
         <v>856</v>
@@ -1790,10 +1796,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D59">
         <v>386</v>
@@ -1810,10 +1816,10 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D60">
         <v>302</v>
@@ -1830,10 +1836,10 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D61">
         <v>333</v>
@@ -1850,10 +1856,10 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>886</v>
@@ -1870,10 +1876,10 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D63">
         <v>377</v>
@@ -1890,10 +1896,10 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <v>949</v>
@@ -1910,10 +1916,10 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>379</v>
@@ -1930,10 +1936,10 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D66">
         <v>419</v>
@@ -1950,16 +1956,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D67">
-        <v>146</v>
+        <v>390</v>
       </c>
       <c r="E67">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1970,16 +1976,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68">
-        <v>308</v>
+        <v>146</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -1990,16 +1996,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D69">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2010,10 +2016,10 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D70">
         <v>420</v>
@@ -2030,10 +2036,10 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D71">
         <v>369</v>
@@ -2050,10 +2056,10 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D72">
         <v>342</v>
@@ -2070,10 +2076,10 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D73">
         <v>391</v>
@@ -2090,10 +2096,10 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D74">
         <v>380</v>
@@ -2110,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>374</v>
@@ -2130,10 +2136,10 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D76">
         <v>392</v>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_IA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_IA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>STATE</t>
   </si>
@@ -44,28 +44,43 @@
     <t>Tic Tac Toad</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Fast 5s</t>
+  </si>
+  <si>
+    <t>Lucky 7s</t>
+  </si>
+  <si>
+    <t>Match 2</t>
+  </si>
+  <si>
+    <t>Hedgie Hundreds</t>
+  </si>
+  <si>
+    <t>Stinking Rich</t>
+  </si>
+  <si>
+    <t>Cashtastic</t>
+  </si>
+  <si>
+    <t>LUCKY EWE!</t>
+  </si>
+  <si>
+    <t>Loose Change Progressive</t>
+  </si>
+  <si>
+    <t>Lucky Gems</t>
   </si>
   <si>
     <t>$50 Loaded!</t>
   </si>
   <si>
-    <t>Lucky 7s</t>
-  </si>
-  <si>
     <t>Quick 7s</t>
   </si>
   <si>
-    <t>Match 2</t>
-  </si>
-  <si>
-    <t>Stinking Rich</t>
-  </si>
-  <si>
-    <t>Cashtastic</t>
-  </si>
-  <si>
-    <t>LUCKY EWE!</t>
+    <t>2019-04-01</t>
   </si>
   <si>
     <t>Cherry Doubler</t>
@@ -74,114 +89,102 @@
     <t>Ultimate Bankroll</t>
   </si>
   <si>
-    <t>Lucky Gems</t>
-  </si>
-  <si>
-    <t>Loose Change Progressive</t>
-  </si>
-  <si>
-    <t>Hedgie Hundreds</t>
-  </si>
-  <si>
-    <t>2019-03-07</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>Double Match</t>
+  </si>
+  <si>
     <t>Neon Green</t>
   </si>
   <si>
-    <t>Double Match</t>
-  </si>
-  <si>
     <t>Beginner's Luck</t>
   </si>
   <si>
+    <t>Wild Cash</t>
+  </si>
+  <si>
+    <t>Level Up!</t>
+  </si>
+  <si>
+    <t>3-2-WON!</t>
+  </si>
+  <si>
+    <t>BULLSEYE DOUBLER</t>
+  </si>
+  <si>
     <t>Pink Ice</t>
   </si>
   <si>
-    <t>Wild Cash</t>
-  </si>
-  <si>
-    <t>BULLSEYE DOUBLER</t>
-  </si>
-  <si>
-    <t>Level Up!</t>
+    <t>High Roller</t>
+  </si>
+  <si>
+    <t>Treasure Chest</t>
+  </si>
+  <si>
+    <t>Pay My Way</t>
+  </si>
+  <si>
+    <t>Cherry Twist Progressive</t>
+  </si>
+  <si>
+    <t>Bonus Ball Bingo</t>
+  </si>
+  <si>
+    <t>Amazing 8s</t>
+  </si>
+  <si>
+    <t>$100 Loaded!</t>
   </si>
   <si>
     <t>Liquid Gold</t>
   </si>
   <si>
-    <t>High Roller</t>
-  </si>
-  <si>
-    <t>Treasure Chest</t>
-  </si>
-  <si>
-    <t>Pay My Way</t>
+    <t>All Star Cash</t>
   </si>
   <si>
     <t>Silver 7s</t>
   </si>
   <si>
-    <t>Cherry Twist Progressive</t>
-  </si>
-  <si>
-    <t>Amazing 8s</t>
-  </si>
-  <si>
-    <t>$100 Loaded!</t>
-  </si>
-  <si>
-    <t>Bonus Ball Bingo</t>
-  </si>
-  <si>
-    <t>All Star Cash</t>
-  </si>
-  <si>
-    <t>Lucky X10</t>
-  </si>
-  <si>
-    <t>2019-03-11</t>
-  </si>
-  <si>
     <t>Block-O</t>
   </si>
   <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>Neon Letters</t>
+  </si>
+  <si>
+    <t>Lucky Marbles</t>
+  </si>
+  <si>
     <t>Cash Path</t>
   </si>
   <si>
-    <t>Neon Letters</t>
-  </si>
-  <si>
-    <t>Lucky Marbles</t>
-  </si>
-  <si>
     <t>Honey Money</t>
   </si>
   <si>
     <t>Connect For Cash</t>
   </si>
   <si>
+    <t>Winner Winner Chicken Dinner</t>
+  </si>
+  <si>
+    <t>Bonus Crossword</t>
+  </si>
+  <si>
     <t>Money Drop Multiplier</t>
   </si>
   <si>
-    <t>Bonus Crossword</t>
-  </si>
-  <si>
-    <t>Winner Winner Chicken Dinner</t>
-  </si>
-  <si>
     <t>CrissCross Cash</t>
   </si>
   <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>Did I Win?</t>
+  </si>
+  <si>
     <t>Bedazzled</t>
   </si>
   <si>
@@ -191,39 +194,39 @@
     <t>Super Crossword</t>
   </si>
   <si>
-    <t>Did I Win?</t>
+    <t>Cash Lift</t>
   </si>
   <si>
     <t>Joker's Jackpot</t>
   </si>
   <si>
+    <t>Struck By Luck</t>
+  </si>
+  <si>
+    <t>$500 Loaded!</t>
+  </si>
+  <si>
     <t>Cash Connect</t>
   </si>
   <si>
-    <t>Cash Lift</t>
-  </si>
-  <si>
     <t>Pharaoh's Fortune</t>
   </si>
   <si>
     <t>Jumbo Bucks Progressive</t>
   </si>
   <si>
-    <t>Struck By Luck</t>
-  </si>
-  <si>
     <t>Extreme Cash Blast</t>
   </si>
   <si>
+    <t>2019-04-05</t>
+  </si>
+  <si>
     <t>Cash Spectacular</t>
   </si>
   <si>
     <t>Frogger Level II</t>
   </si>
   <si>
-    <t>$500 Loaded!</t>
-  </si>
-  <si>
     <t>Cash Line</t>
   </si>
   <si>
@@ -245,25 +248,28 @@
     <t>Money Multiplier</t>
   </si>
   <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Cash In</t>
+  </si>
+  <si>
+    <t>Jackpot Party Progressive</t>
+  </si>
+  <si>
     <t>$100,000 Mega Crossword</t>
   </si>
   <si>
     <t>$1,000 Loaded!</t>
   </si>
   <si>
+    <t>Spectacular Riches</t>
+  </si>
+  <si>
+    <t>Casino Riches</t>
+  </si>
+  <si>
     <t>Diamond 9s</t>
-  </si>
-  <si>
-    <t>Jackpot Party Progressive</t>
-  </si>
-  <si>
-    <t>Cash In</t>
-  </si>
-  <si>
-    <t>Spectacular Riches</t>
-  </si>
-  <si>
-    <t>Casino Riches</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -623,7 +629,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,10 +688,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -705,7 +711,7 @@
         <v>421</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -722,10 +728,10 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -742,10 +748,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>697</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -822,10 +828,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>364</v>
+        <v>144</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -842,10 +848,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>395</v>
+        <v>140</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -862,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>140</v>
+        <v>414</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -882,13 +888,13 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="E13">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -899,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>364</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
-      </c>
-      <c r="D14">
-        <v>423</v>
-      </c>
-      <c r="E14">
-        <v>1030</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -916,19 +922,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
       <c r="D15">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -936,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -956,16 +962,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -976,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -996,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -1016,16 +1022,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>145</v>
+        <v>424</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1036,16 +1042,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1056,16 +1062,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22">
-        <v>349</v>
+        <v>145</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1076,16 +1082,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1096,16 +1102,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E24">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1116,16 +1122,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1136,16 +1142,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
       </c>
       <c r="D26">
-        <v>372</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1156,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -1165,7 +1171,7 @@
         <v>141</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1176,16 +1182,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
       </c>
       <c r="D28">
-        <v>417</v>
+        <v>895</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1196,13 +1202,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1216,16 +1222,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30">
-        <v>895</v>
+        <v>416</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1236,19 +1242,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1256,19 +1262,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
       </c>
       <c r="D32">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1276,19 +1282,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1296,16 +1302,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1319,7 +1325,7 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <v>367</v>
@@ -1339,7 +1345,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
         <v>389</v>
@@ -1359,13 +1365,13 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1379,13 +1385,13 @@
         <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1399,13 +1405,13 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1419,13 +1425,13 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>953</v>
+        <v>350</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1439,13 +1445,13 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>350</v>
+        <v>953</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1459,16 +1465,16 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1476,16 +1482,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>884</v>
+        <v>305</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1499,10 +1505,10 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>362</v>
+        <v>885</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1519,16 +1525,16 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45">
-        <v>954</v>
+        <v>884</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1539,16 +1545,16 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46">
-        <v>885</v>
+        <v>362</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1559,16 +1565,16 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47">
-        <v>347</v>
+        <v>954</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1579,10 +1585,10 @@
         <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>950</v>
+        <v>332</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1599,16 +1605,16 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1619,13 +1625,13 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1639,13 +1645,13 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>378</v>
       </c>
       <c r="E51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1659,13 +1665,13 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="E52">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1679,16 +1685,16 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53">
-        <v>401</v>
+        <v>950</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1699,13 +1705,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1719,13 +1725,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D55">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1739,16 +1745,16 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>397</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
         <v>67</v>
-      </c>
-      <c r="D56">
-        <v>425</v>
-      </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1762,10 +1768,10 @@
         <v>68</v>
       </c>
       <c r="D57">
-        <v>418</v>
+        <v>142</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1782,10 +1788,10 @@
         <v>69</v>
       </c>
       <c r="D58">
-        <v>856</v>
+        <v>425</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1802,10 +1808,10 @@
         <v>70</v>
       </c>
       <c r="D59">
-        <v>386</v>
+        <v>856</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1816,16 +1822,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
         <v>71</v>
       </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
       <c r="D60">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1836,16 +1842,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1856,13 +1862,13 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>886</v>
+        <v>333</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -1876,16 +1882,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D63">
-        <v>377</v>
+        <v>886</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1896,13 +1902,13 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="D64">
-        <v>949</v>
+        <v>377</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -1916,16 +1922,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
       <c r="D65">
-        <v>379</v>
+        <v>949</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -1936,16 +1942,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
       </c>
       <c r="D66">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>9</v>
@@ -1956,16 +1962,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
         <v>78</v>
       </c>
       <c r="D67">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>9</v>
@@ -1976,7 +1982,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>79</v>
@@ -1985,7 +1991,7 @@
         <v>146</v>
       </c>
       <c r="E68">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
         <v>9</v>
@@ -1996,16 +2002,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
       <c r="D69">
-        <v>308</v>
+        <v>379</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
         <v>9</v>
@@ -2016,16 +2022,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="D70">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>9</v>
@@ -2036,16 +2042,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
       </c>
       <c r="D71">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>9</v>
@@ -2056,16 +2062,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
         <v>83</v>
       </c>
-      <c r="C72" t="s">
-        <v>84</v>
-      </c>
       <c r="D72">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>9</v>
@@ -2076,16 +2082,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D73">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E73">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2096,16 +2102,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
         <v>86</v>
       </c>
       <c r="D74">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2116,16 +2122,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
         <v>87</v>
       </c>
-      <c r="C75" t="s">
-        <v>88</v>
-      </c>
       <c r="D75">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2136,18 +2142,58 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76">
+        <v>380</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
         <v>89</v>
       </c>
-      <c r="D76">
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>374</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78">
         <v>392</v>
       </c>
-      <c r="E76">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
         <v>9</v>
       </c>
     </row>
